--- a/python/output.xlsx
+++ b/python/output.xlsx
@@ -20,67 +20,67 @@
     <t>% of Campaign Impressions</t>
   </si>
   <si>
-    <t>00-04-1958</t>
-  </si>
-  <si>
-    <t>01-02-1960</t>
-  </si>
-  <si>
-    <t>01-06-1987</t>
-  </si>
-  <si>
-    <t>02-03-1963</t>
-  </si>
-  <si>
-    <t>02-04-1979</t>
-  </si>
-  <si>
-    <t>02-11-2015</t>
-  </si>
-  <si>
-    <t>03-04-1972</t>
-  </si>
-  <si>
-    <t>04-00-1985</t>
-  </si>
-  <si>
-    <t>06-09-1960</t>
-  </si>
-  <si>
-    <t>07-06-1953</t>
-  </si>
-  <si>
-    <t>07-10-2005</t>
-  </si>
-  <si>
-    <t>08-00-1989</t>
-  </si>
-  <si>
-    <t>09-08-1973</t>
-  </si>
-  <si>
-    <t>10-03-1964</t>
-  </si>
-  <si>
-    <t>10-04-1959</t>
-  </si>
-  <si>
-    <t>11-04-1984</t>
-  </si>
-  <si>
-    <t>11-05-1968</t>
-  </si>
-  <si>
-    <t>11-05-2008</t>
-  </si>
-  <si>
-    <t>12-04-1975</t>
-  </si>
-  <si>
-    <t>12-08-1976</t>
-  </si>
-  <si>
-    <t>12-11-2002</t>
+    <t>00-05-1977</t>
+  </si>
+  <si>
+    <t>00-10-2015</t>
+  </si>
+  <si>
+    <t>01-11-1959</t>
+  </si>
+  <si>
+    <t>02-02-1996</t>
+  </si>
+  <si>
+    <t>02-03-1952</t>
+  </si>
+  <si>
+    <t>02-07-1991</t>
+  </si>
+  <si>
+    <t>03-00-1970</t>
+  </si>
+  <si>
+    <t>03-07-1982</t>
+  </si>
+  <si>
+    <t>04-04-1969</t>
+  </si>
+  <si>
+    <t>05-07-1990</t>
+  </si>
+  <si>
+    <t>05-08-1970</t>
+  </si>
+  <si>
+    <t>07-07-2014</t>
+  </si>
+  <si>
+    <t>08-05-1958</t>
+  </si>
+  <si>
+    <t>09-01-1987</t>
+  </si>
+  <si>
+    <t>09-07-1959</t>
+  </si>
+  <si>
+    <t>10-12-1970</t>
+  </si>
+  <si>
+    <t>11-00-1953</t>
+  </si>
+  <si>
+    <t>11-11-2014</t>
+  </si>
+  <si>
+    <t>12-00-1996</t>
+  </si>
+  <si>
+    <t>12-00-2000</t>
+  </si>
+  <si>
+    <t>12-00-2004</t>
   </si>
   <si>
     <t>CAMPAIGN_TEST</t>
@@ -657,7 +657,7 @@
     </row>
     <row spans="1:28" r="2">
       <c t="n" s="1" r="A2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c t="s" r="B2">
         <v>34</v>
@@ -669,7 +669,7 @@
         <v>44</v>
       </c>
       <c t="s" r="E2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c t="s" r="F2">
         <v>43</v>
@@ -678,72 +678,72 @@
         <v>30</v>
       </c>
       <c t="n" r="H2">
-        <v>72161</v>
+        <v>86445</v>
       </c>
       <c t="n" r="I2">
-        <v>818989</v>
+        <v>217800</v>
       </c>
       <c t="n" r="J2">
-        <v>0.73</v>
+        <v>0.07</v>
       </c>
       <c t="n" r="K2">
-        <v>3335</v>
+        <v>6346</v>
       </c>
       <c t="n" r="L2">
-        <v>8276</v>
+        <v>1913</v>
       </c>
       <c t="n" r="M2">
-        <v>7786</v>
+        <v>3986</v>
       </c>
       <c t="n" r="N2">
-        <v>4656</v>
+        <v>3260</v>
       </c>
       <c t="n" r="O2">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c t="n" r="P2">
         <v>83</v>
       </c>
       <c t="n" r="Q2">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c t="n" r="R2">
-        <v>583</v>
+        <v>689</v>
       </c>
       <c t="n" r="S2">
-        <v>9221</v>
+        <v>5910</v>
       </c>
       <c t="n" r="T2">
-        <v>6916</v>
+        <v>8113</v>
       </c>
       <c t="n" r="U2">
-        <v>227</v>
+        <v>376</v>
       </c>
       <c t="n" r="V2">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c t="n" r="W2">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c t="n" r="X2">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c t="n" r="Y2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c t="n" r="Z2">
-        <v>2920</v>
+        <v>7875</v>
       </c>
       <c t="n" r="AA2">
-        <v>2069</v>
+        <v>3524</v>
       </c>
       <c t="n" r="AB2">
-        <v>5811</v>
+        <v>4670</v>
       </c>
     </row>
     <row spans="1:28" r="3">
       <c t="n" s="1" r="A3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c t="s" r="B3">
         <v>34</v>
@@ -755,7 +755,7 @@
         <v>44</v>
       </c>
       <c t="s" r="E3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c t="s" r="F3">
         <v>43</v>
@@ -764,72 +764,72 @@
         <v>30</v>
       </c>
       <c t="n" r="H3">
-        <v>21022</v>
+        <v>25915</v>
       </c>
       <c t="n" r="I3">
-        <v>848092</v>
+        <v>667214</v>
       </c>
       <c t="n" r="J3">
-        <v>0.54</v>
+        <v>0.97</v>
       </c>
       <c t="n" r="K3">
-        <v>2173</v>
+        <v>4049</v>
       </c>
       <c t="n" r="L3">
-        <v>8116</v>
+        <v>1282</v>
       </c>
       <c t="n" r="M3">
-        <v>6555</v>
+        <v>6365</v>
       </c>
       <c t="n" r="N3">
-        <v>8689</v>
+        <v>4194</v>
       </c>
       <c t="n" r="O3">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c t="n" r="P3">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c t="n" r="Q3">
-        <v>0.87</v>
+        <v>0.11</v>
       </c>
       <c t="n" r="R3">
-        <v>227</v>
+        <v>955</v>
       </c>
       <c t="n" r="S3">
-        <v>8213</v>
+        <v>6780</v>
       </c>
       <c t="n" r="T3">
-        <v>9582</v>
+        <v>5618</v>
       </c>
       <c t="n" r="U3">
-        <v>584</v>
+        <v>336</v>
       </c>
       <c t="n" r="V3">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c t="n" r="W3">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c t="n" r="X3">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c t="n" r="Y3">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c t="n" r="Z3">
-        <v>1233</v>
+        <v>2506</v>
       </c>
       <c t="n" r="AA3">
-        <v>8192</v>
+        <v>8963</v>
       </c>
       <c t="n" r="AB3">
-        <v>9290</v>
+        <v>2056</v>
       </c>
     </row>
     <row spans="1:28" r="4">
       <c t="n" s="1" r="A4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c t="s" r="B4">
         <v>34</v>
@@ -841,7 +841,7 @@
         <v>44</v>
       </c>
       <c t="s" r="E4">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c t="s" r="F4">
         <v>43</v>
@@ -850,67 +850,67 @@
         <v>30</v>
       </c>
       <c t="n" r="H4">
-        <v>62905</v>
+        <v>40885</v>
       </c>
       <c t="n" r="I4">
-        <v>736544</v>
+        <v>263954</v>
       </c>
       <c t="n" r="J4">
-        <v>0.01</v>
+        <v>0.52</v>
       </c>
       <c t="n" r="K4">
-        <v>6000</v>
+        <v>5321</v>
       </c>
       <c t="n" r="L4">
-        <v>6901</v>
+        <v>8629</v>
       </c>
       <c t="n" r="M4">
-        <v>4450</v>
+        <v>3607</v>
       </c>
       <c t="n" r="N4">
-        <v>6838</v>
+        <v>5541</v>
       </c>
       <c t="n" r="O4">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c t="n" r="P4">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c t="n" r="Q4">
-        <v>0.27</v>
+        <v>0.99</v>
       </c>
       <c t="n" r="R4">
-        <v>732</v>
+        <v>460</v>
       </c>
       <c t="n" r="S4">
-        <v>4075</v>
+        <v>6287</v>
       </c>
       <c t="n" r="T4">
-        <v>9210</v>
+        <v>9669</v>
       </c>
       <c t="n" r="U4">
-        <v>904</v>
+        <v>589</v>
       </c>
       <c t="n" r="V4">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c t="n" r="W4">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c t="n" r="X4">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c t="n" r="Y4">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c t="n" r="Z4">
-        <v>5296</v>
+        <v>2059</v>
       </c>
       <c t="n" r="AA4">
-        <v>8245</v>
+        <v>5795</v>
       </c>
       <c t="n" r="AB4">
-        <v>8514</v>
+        <v>7551</v>
       </c>
     </row>
     <row spans="1:28" r="5">
@@ -936,72 +936,72 @@
         <v>30</v>
       </c>
       <c t="n" r="H5">
-        <v>40638</v>
+        <v>99928</v>
       </c>
       <c t="n" r="I5">
-        <v>726334</v>
+        <v>950210</v>
       </c>
       <c t="n" r="J5">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c t="n" r="K5">
-        <v>1894</v>
+        <v>7312</v>
       </c>
       <c t="n" r="L5">
-        <v>2284</v>
+        <v>2890</v>
       </c>
       <c t="n" r="M5">
-        <v>2671</v>
+        <v>9772</v>
       </c>
       <c t="n" r="N5">
-        <v>5056</v>
+        <v>4366</v>
       </c>
       <c t="n" r="O5">
         <v>92</v>
       </c>
       <c t="n" r="P5">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c t="n" r="Q5">
-        <v>0.37</v>
+        <v>0.79</v>
       </c>
       <c t="n" r="R5">
-        <v>971</v>
+        <v>466</v>
       </c>
       <c t="n" r="S5">
-        <v>7418</v>
+        <v>7130</v>
       </c>
       <c t="n" r="T5">
-        <v>3175</v>
+        <v>8773</v>
       </c>
       <c t="n" r="U5">
-        <v>613</v>
+        <v>456</v>
       </c>
       <c t="n" r="V5">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c t="n" r="W5">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c t="n" r="X5">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c t="n" r="Y5">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c t="n" r="Z5">
-        <v>8556</v>
+        <v>6649</v>
       </c>
       <c t="n" r="AA5">
-        <v>9241</v>
+        <v>2127</v>
       </c>
       <c t="n" r="AB5">
-        <v>3876</v>
+        <v>4446</v>
       </c>
     </row>
     <row spans="1:28" r="6">
       <c t="n" s="1" r="A6">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c t="s" r="B6">
         <v>34</v>
@@ -1013,7 +1013,7 @@
         <v>44</v>
       </c>
       <c t="s" r="E6">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c t="s" r="F6">
         <v>43</v>
@@ -1022,72 +1022,72 @@
         <v>30</v>
       </c>
       <c t="n" r="H6">
-        <v>91012</v>
+        <v>58577</v>
       </c>
       <c t="n" r="I6">
-        <v>522580</v>
+        <v>833468</v>
       </c>
       <c t="n" r="J6">
-        <v>0.87</v>
+        <v>0.47</v>
       </c>
       <c t="n" r="K6">
-        <v>5030</v>
+        <v>7956</v>
       </c>
       <c t="n" r="L6">
-        <v>9916</v>
+        <v>3856</v>
       </c>
       <c t="n" r="M6">
-        <v>4505</v>
+        <v>8879</v>
       </c>
       <c t="n" r="N6">
-        <v>6230</v>
+        <v>1443</v>
       </c>
       <c t="n" r="O6">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c t="n" r="P6">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c t="n" r="Q6">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c t="n" r="R6">
-        <v>995</v>
+        <v>209</v>
       </c>
       <c t="n" r="S6">
-        <v>8384</v>
+        <v>9960</v>
       </c>
       <c t="n" r="T6">
-        <v>3836</v>
+        <v>8655</v>
       </c>
       <c t="n" r="U6">
-        <v>304</v>
+        <v>834</v>
       </c>
       <c t="n" r="V6">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="n" r="W6">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c t="n" r="X6">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c t="n" r="Y6">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c t="n" r="Z6">
-        <v>6970</v>
+        <v>2152</v>
       </c>
       <c t="n" r="AA6">
-        <v>8897</v>
+        <v>2799</v>
       </c>
       <c t="n" r="AB6">
-        <v>6302</v>
+        <v>7815</v>
       </c>
     </row>
     <row spans="1:28" r="7">
       <c t="n" s="1" r="A7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c t="s" r="B7">
         <v>34</v>
@@ -1099,7 +1099,7 @@
         <v>44</v>
       </c>
       <c t="s" r="E7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c t="s" r="F7">
         <v>43</v>
@@ -1108,72 +1108,72 @@
         <v>30</v>
       </c>
       <c t="n" r="H7">
-        <v>10569</v>
+        <v>41337</v>
       </c>
       <c t="n" r="I7">
-        <v>440725</v>
+        <v>892087</v>
       </c>
       <c t="n" r="J7">
-        <v>0.98</v>
+        <v>0.5</v>
       </c>
       <c t="n" r="K7">
-        <v>4049</v>
+        <v>3507</v>
       </c>
       <c t="n" r="L7">
-        <v>2019</v>
+        <v>3492</v>
       </c>
       <c t="n" r="M7">
-        <v>1310</v>
+        <v>5621</v>
       </c>
       <c t="n" r="N7">
-        <v>5513</v>
+        <v>4484</v>
       </c>
       <c t="n" r="O7">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="n" r="P7">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c t="n" r="Q7">
-        <v>0.35</v>
+        <v>0.9</v>
       </c>
       <c t="n" r="R7">
-        <v>689</v>
+        <v>851</v>
       </c>
       <c t="n" r="S7">
-        <v>7993</v>
+        <v>2142</v>
       </c>
       <c t="n" r="T7">
-        <v>2641</v>
+        <v>3683</v>
       </c>
       <c t="n" r="U7">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c t="n" r="V7">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c t="n" r="W7">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c t="n" r="X7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="n" r="Y7">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c t="n" r="Z7">
-        <v>1158</v>
+        <v>8366</v>
       </c>
       <c t="n" r="AA7">
-        <v>9662</v>
+        <v>6666</v>
       </c>
       <c t="n" r="AB7">
-        <v>4070</v>
+        <v>7431</v>
       </c>
     </row>
     <row spans="1:28" r="8">
       <c t="n" s="1" r="A8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c t="s" r="B8">
         <v>34</v>
@@ -1185,7 +1185,7 @@
         <v>44</v>
       </c>
       <c t="s" r="E8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c t="s" r="F8">
         <v>43</v>
@@ -1194,72 +1194,72 @@
         <v>30</v>
       </c>
       <c t="n" r="H8">
-        <v>19731</v>
+        <v>46692</v>
       </c>
       <c t="n" r="I8">
-        <v>578480</v>
+        <v>841585</v>
       </c>
       <c t="n" r="J8">
-        <v>0.01</v>
+        <v>0.97</v>
       </c>
       <c t="n" r="K8">
-        <v>1173</v>
+        <v>4304</v>
       </c>
       <c t="n" r="L8">
-        <v>8946</v>
+        <v>1738</v>
       </c>
       <c t="n" r="M8">
-        <v>8074</v>
+        <v>1519</v>
       </c>
       <c t="n" r="N8">
-        <v>8967</v>
+        <v>6862</v>
       </c>
       <c t="n" r="O8">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c t="n" r="P8">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c t="n" r="Q8">
-        <v>0.73</v>
+        <v>0.42</v>
       </c>
       <c t="n" r="R8">
-        <v>186</v>
+        <v>349</v>
       </c>
       <c t="n" r="S8">
-        <v>1705</v>
+        <v>7290</v>
       </c>
       <c t="n" r="T8">
-        <v>7239</v>
+        <v>9572</v>
       </c>
       <c t="n" r="U8">
-        <v>663</v>
+        <v>205</v>
       </c>
       <c t="n" r="V8">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c t="n" r="W8">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c t="n" r="X8">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c t="n" r="Y8">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c t="n" r="Z8">
-        <v>1836</v>
+        <v>8005</v>
       </c>
       <c t="n" r="AA8">
-        <v>3654</v>
+        <v>5484</v>
       </c>
       <c t="n" r="AB8">
-        <v>4958</v>
+        <v>1537</v>
       </c>
     </row>
     <row spans="1:28" r="9">
       <c t="n" s="1" r="A9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c t="s" r="B9">
         <v>34</v>
@@ -1271,7 +1271,7 @@
         <v>44</v>
       </c>
       <c t="s" r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c t="s" r="F9">
         <v>43</v>
@@ -1280,72 +1280,72 @@
         <v>30</v>
       </c>
       <c t="n" r="H9">
-        <v>78206</v>
+        <v>36451</v>
       </c>
       <c t="n" r="I9">
-        <v>952605</v>
+        <v>265428</v>
       </c>
       <c t="n" r="J9">
-        <v>1.0</v>
+        <v>0.66</v>
       </c>
       <c t="n" r="K9">
-        <v>1286</v>
+        <v>5683</v>
       </c>
       <c t="n" r="L9">
-        <v>9294</v>
+        <v>7372</v>
       </c>
       <c t="n" r="M9">
-        <v>1663</v>
+        <v>9439</v>
       </c>
       <c t="n" r="N9">
-        <v>5486</v>
+        <v>6067</v>
       </c>
       <c t="n" r="O9">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c t="n" r="P9">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c t="n" r="Q9">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c t="n" r="R9">
-        <v>353</v>
+        <v>606</v>
       </c>
       <c t="n" r="S9">
-        <v>7542</v>
+        <v>8858</v>
       </c>
       <c t="n" r="T9">
-        <v>5547</v>
+        <v>7031</v>
       </c>
       <c t="n" r="U9">
-        <v>439</v>
+        <v>852</v>
       </c>
       <c t="n" r="V9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="n" r="W9">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c t="n" r="X9">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c t="n" r="Y9">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c t="n" r="Z9">
-        <v>2239</v>
+        <v>6601</v>
       </c>
       <c t="n" r="AA9">
-        <v>1135</v>
+        <v>6745</v>
       </c>
       <c t="n" r="AB9">
-        <v>1478</v>
+        <v>4287</v>
       </c>
     </row>
     <row spans="1:28" r="10">
       <c t="n" s="1" r="A10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c t="s" r="B10">
         <v>34</v>
@@ -1357,7 +1357,7 @@
         <v>44</v>
       </c>
       <c t="s" r="E10">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c t="s" r="F10">
         <v>43</v>
@@ -1366,72 +1366,72 @@
         <v>30</v>
       </c>
       <c t="n" r="H10">
-        <v>53969</v>
+        <v>73035</v>
       </c>
       <c t="n" r="I10">
-        <v>920083</v>
+        <v>614420</v>
       </c>
       <c t="n" r="J10">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c t="n" r="K10">
-        <v>8734</v>
+        <v>9291</v>
       </c>
       <c t="n" r="L10">
-        <v>1996</v>
+        <v>6009</v>
       </c>
       <c t="n" r="M10">
-        <v>1518</v>
+        <v>5060</v>
       </c>
       <c t="n" r="N10">
-        <v>9489</v>
+        <v>1632</v>
       </c>
       <c t="n" r="O10">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c t="n" r="P10">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c t="n" r="Q10">
-        <v>0.56</v>
+        <v>0.49</v>
       </c>
       <c t="n" r="R10">
-        <v>923</v>
+        <v>624</v>
       </c>
       <c t="n" r="S10">
-        <v>8610</v>
+        <v>5896</v>
       </c>
       <c t="n" r="T10">
-        <v>1018</v>
+        <v>2817</v>
       </c>
       <c t="n" r="U10">
-        <v>543</v>
+        <v>159</v>
       </c>
       <c t="n" r="V10">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c t="n" r="W10">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c t="n" r="X10">
         <v>83</v>
       </c>
       <c t="n" r="Y10">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c t="n" r="Z10">
-        <v>1103</v>
+        <v>4819</v>
       </c>
       <c t="n" r="AA10">
-        <v>7399</v>
+        <v>6658</v>
       </c>
       <c t="n" r="AB10">
-        <v>1875</v>
+        <v>8323</v>
       </c>
     </row>
     <row spans="1:28" r="11">
       <c t="n" s="1" r="A11">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c t="s" r="B11">
         <v>34</v>
@@ -1443,7 +1443,7 @@
         <v>44</v>
       </c>
       <c t="s" r="E11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c t="s" r="F11">
         <v>43</v>
@@ -1452,67 +1452,67 @@
         <v>30</v>
       </c>
       <c t="n" r="H11">
-        <v>80167</v>
+        <v>47603</v>
       </c>
       <c t="n" r="I11">
-        <v>597233</v>
+        <v>725438</v>
       </c>
       <c t="n" r="J11">
-        <v>0.03</v>
+        <v>0.22</v>
       </c>
       <c t="n" r="K11">
-        <v>3177</v>
+        <v>1136</v>
       </c>
       <c t="n" r="L11">
-        <v>1829</v>
+        <v>1093</v>
       </c>
       <c t="n" r="M11">
-        <v>6764</v>
+        <v>3167</v>
       </c>
       <c t="n" r="N11">
-        <v>1409</v>
+        <v>3417</v>
       </c>
       <c t="n" r="O11">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c t="n" r="P11">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c t="n" r="Q11">
-        <v>0.25</v>
+        <v>0.84</v>
       </c>
       <c t="n" r="R11">
-        <v>717</v>
+        <v>301</v>
       </c>
       <c t="n" r="S11">
-        <v>9166</v>
+        <v>4801</v>
       </c>
       <c t="n" r="T11">
-        <v>6722</v>
+        <v>8245</v>
       </c>
       <c t="n" r="U11">
-        <v>529</v>
+        <v>801</v>
       </c>
       <c t="n" r="V11">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c t="n" r="W11">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c t="n" r="X11">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c t="n" r="Y11">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c t="n" r="Z11">
-        <v>6092</v>
+        <v>9304</v>
       </c>
       <c t="n" r="AA11">
-        <v>8989</v>
+        <v>6390</v>
       </c>
       <c t="n" r="AB11">
-        <v>5406</v>
+        <v>5948</v>
       </c>
     </row>
     <row spans="1:28" r="12">
@@ -1529,7 +1529,7 @@
         <v>44</v>
       </c>
       <c t="s" r="E12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c t="s" r="F12">
         <v>43</v>
@@ -1538,72 +1538,72 @@
         <v>30</v>
       </c>
       <c t="n" r="H12">
-        <v>52901</v>
+        <v>22371</v>
       </c>
       <c t="n" r="I12">
-        <v>236076</v>
+        <v>613423</v>
       </c>
       <c t="n" r="J12">
-        <v>0.75</v>
+        <v>0.47</v>
       </c>
       <c t="n" r="K12">
-        <v>7742</v>
+        <v>6206</v>
       </c>
       <c t="n" r="L12">
-        <v>7755</v>
+        <v>2066</v>
       </c>
       <c t="n" r="M12">
-        <v>9163</v>
+        <v>6719</v>
       </c>
       <c t="n" r="N12">
-        <v>7900</v>
+        <v>4639</v>
       </c>
       <c t="n" r="O12">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c t="n" r="P12">
+        <v>71</v>
+      </c>
+      <c t="n" r="Q12">
+        <v>0.5</v>
+      </c>
+      <c t="n" r="R12">
+        <v>302</v>
+      </c>
+      <c t="n" r="S12">
+        <v>5941</v>
+      </c>
+      <c t="n" r="T12">
+        <v>2951</v>
+      </c>
+      <c t="n" r="U12">
+        <v>898</v>
+      </c>
+      <c t="n" r="V12">
         <v>56</v>
       </c>
-      <c t="n" r="Q12">
-        <v>0.43</v>
-      </c>
-      <c t="n" r="R12">
-        <v>499</v>
-      </c>
-      <c t="n" r="S12">
-        <v>2230</v>
-      </c>
-      <c t="n" r="T12">
-        <v>9689</v>
-      </c>
-      <c t="n" r="U12">
-        <v>229</v>
-      </c>
-      <c t="n" r="V12">
-        <v>86</v>
-      </c>
       <c t="n" r="W12">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c t="n" r="X12">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c t="n" r="Y12">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c t="n" r="Z12">
-        <v>5053</v>
+        <v>8973</v>
       </c>
       <c t="n" r="AA12">
-        <v>5220</v>
+        <v>3886</v>
       </c>
       <c t="n" r="AB12">
-        <v>5030</v>
+        <v>9940</v>
       </c>
     </row>
     <row spans="1:28" r="13">
       <c t="n" s="1" r="A13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c t="s" r="B13">
         <v>34</v>
@@ -1615,7 +1615,7 @@
         <v>44</v>
       </c>
       <c t="s" r="E13">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c t="s" r="F13">
         <v>43</v>
@@ -1624,72 +1624,72 @@
         <v>30</v>
       </c>
       <c t="n" r="H13">
-        <v>93958</v>
+        <v>33825</v>
       </c>
       <c t="n" r="I13">
-        <v>196711</v>
+        <v>408986</v>
       </c>
       <c t="n" r="J13">
+        <v>0.38</v>
+      </c>
+      <c t="n" r="K13">
+        <v>6715</v>
+      </c>
+      <c t="n" r="L13">
+        <v>8992</v>
+      </c>
+      <c t="n" r="M13">
+        <v>1602</v>
+      </c>
+      <c t="n" r="N13">
+        <v>8118</v>
+      </c>
+      <c t="n" r="O13">
+        <v>65</v>
+      </c>
+      <c t="n" r="P13">
+        <v>12</v>
+      </c>
+      <c t="n" r="Q13">
         <v>0.35</v>
       </c>
-      <c t="n" r="K13">
-        <v>7089</v>
-      </c>
-      <c t="n" r="L13">
-        <v>5354</v>
-      </c>
-      <c t="n" r="M13">
-        <v>1563</v>
-      </c>
-      <c t="n" r="N13">
-        <v>3141</v>
-      </c>
-      <c t="n" r="O13">
-        <v>44</v>
-      </c>
-      <c t="n" r="P13">
-        <v>60</v>
-      </c>
-      <c t="n" r="Q13">
-        <v>0.55</v>
-      </c>
       <c t="n" r="R13">
-        <v>238</v>
+        <v>598</v>
       </c>
       <c t="n" r="S13">
-        <v>8777</v>
+        <v>8913</v>
       </c>
       <c t="n" r="T13">
-        <v>1552</v>
+        <v>6912</v>
       </c>
       <c t="n" r="U13">
-        <v>272</v>
+        <v>613</v>
       </c>
       <c t="n" r="V13">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c t="n" r="W13">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c t="n" r="X13">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c t="n" r="Y13">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c t="n" r="Z13">
-        <v>8985</v>
+        <v>8573</v>
       </c>
       <c t="n" r="AA13">
-        <v>5548</v>
+        <v>2197</v>
       </c>
       <c t="n" r="AB13">
-        <v>9529</v>
+        <v>6421</v>
       </c>
     </row>
     <row spans="1:28" r="14">
       <c t="n" s="1" r="A14">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c t="s" r="B14">
         <v>34</v>
@@ -1701,7 +1701,7 @@
         <v>44</v>
       </c>
       <c t="s" r="E14">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c t="s" r="F14">
         <v>43</v>
@@ -1710,72 +1710,72 @@
         <v>30</v>
       </c>
       <c t="n" r="H14">
-        <v>78904</v>
+        <v>78713</v>
       </c>
       <c t="n" r="I14">
-        <v>999654</v>
+        <v>249999</v>
       </c>
       <c t="n" r="J14">
-        <v>0.07</v>
+        <v>0.23</v>
       </c>
       <c t="n" r="K14">
-        <v>9959</v>
+        <v>6821</v>
       </c>
       <c t="n" r="L14">
-        <v>6888</v>
+        <v>9345</v>
       </c>
       <c t="n" r="M14">
-        <v>3367</v>
+        <v>7965</v>
       </c>
       <c t="n" r="N14">
-        <v>5203</v>
+        <v>2566</v>
       </c>
       <c t="n" r="O14">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c t="n" r="P14">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c t="n" r="Q14">
-        <v>0.4</v>
+        <v>0.79</v>
       </c>
       <c t="n" r="R14">
-        <v>386</v>
+        <v>614</v>
       </c>
       <c t="n" r="S14">
-        <v>3361</v>
+        <v>3589</v>
       </c>
       <c t="n" r="T14">
-        <v>6148</v>
+        <v>5228</v>
       </c>
       <c t="n" r="U14">
-        <v>201</v>
+        <v>595</v>
       </c>
       <c t="n" r="V14">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c t="n" r="W14">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c t="n" r="X14">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c t="n" r="Y14">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c t="n" r="Z14">
-        <v>4629</v>
+        <v>1045</v>
       </c>
       <c t="n" r="AA14">
-        <v>9853</v>
+        <v>5330</v>
       </c>
       <c t="n" r="AB14">
-        <v>9018</v>
+        <v>6225</v>
       </c>
     </row>
     <row spans="1:28" r="15">
       <c t="n" s="1" r="A15">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c t="s" r="B15">
         <v>34</v>
@@ -1787,7 +1787,7 @@
         <v>44</v>
       </c>
       <c t="s" r="E15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c t="s" r="F15">
         <v>43</v>
@@ -1796,72 +1796,72 @@
         <v>30</v>
       </c>
       <c t="n" r="H15">
-        <v>28977</v>
+        <v>71457</v>
       </c>
       <c t="n" r="I15">
-        <v>619991</v>
+        <v>865570</v>
       </c>
       <c t="n" r="J15">
-        <v>0.03</v>
+        <v>0.86</v>
       </c>
       <c t="n" r="K15">
-        <v>7597</v>
+        <v>7364</v>
       </c>
       <c t="n" r="L15">
-        <v>3234</v>
+        <v>9592</v>
       </c>
       <c t="n" r="M15">
-        <v>9596</v>
+        <v>9377</v>
       </c>
       <c t="n" r="N15">
-        <v>9349</v>
+        <v>4409</v>
       </c>
       <c t="n" r="O15">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c t="n" r="P15">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c t="n" r="Q15">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c t="n" r="R15">
-        <v>793</v>
+        <v>1000</v>
       </c>
       <c t="n" r="S15">
-        <v>3166</v>
+        <v>4130</v>
       </c>
       <c t="n" r="T15">
-        <v>4532</v>
+        <v>8794</v>
       </c>
       <c t="n" r="U15">
-        <v>867</v>
+        <v>717</v>
       </c>
       <c t="n" r="V15">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c t="n" r="W15">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c t="n" r="X15">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c t="n" r="Y15">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c t="n" r="Z15">
-        <v>6340</v>
+        <v>5711</v>
       </c>
       <c t="n" r="AA15">
-        <v>1262</v>
+        <v>6009</v>
       </c>
       <c t="n" r="AB15">
-        <v>7197</v>
+        <v>9028</v>
       </c>
     </row>
     <row spans="1:28" r="16">
       <c t="n" s="1" r="A16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c t="s" r="B16">
         <v>34</v>
@@ -1873,7 +1873,7 @@
         <v>44</v>
       </c>
       <c t="s" r="E16">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c t="s" r="F16">
         <v>43</v>
@@ -1882,72 +1882,72 @@
         <v>30</v>
       </c>
       <c t="n" r="H16">
-        <v>75706</v>
+        <v>50480</v>
       </c>
       <c t="n" r="I16">
-        <v>259935</v>
+        <v>997689</v>
       </c>
       <c t="n" r="J16">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c t="n" r="K16">
-        <v>7032</v>
+        <v>9944</v>
       </c>
       <c t="n" r="L16">
-        <v>2138</v>
+        <v>6292</v>
       </c>
       <c t="n" r="M16">
-        <v>7910</v>
+        <v>8096</v>
       </c>
       <c t="n" r="N16">
-        <v>6415</v>
+        <v>4397</v>
       </c>
       <c t="n" r="O16">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c t="n" r="P16">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c t="n" r="Q16">
-        <v>0.73</v>
+        <v>0.42</v>
       </c>
       <c t="n" r="R16">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c t="n" r="S16">
-        <v>4396</v>
+        <v>6408</v>
       </c>
       <c t="n" r="T16">
-        <v>9081</v>
+        <v>3543</v>
       </c>
       <c t="n" r="U16">
-        <v>293</v>
+        <v>796</v>
       </c>
       <c t="n" r="V16">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c t="n" r="W16">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c t="n" r="X16">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c t="n" r="Y16">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c t="n" r="Z16">
-        <v>8191</v>
+        <v>4912</v>
       </c>
       <c t="n" r="AA16">
-        <v>4421</v>
+        <v>7076</v>
       </c>
       <c t="n" r="AB16">
-        <v>4838</v>
+        <v>5397</v>
       </c>
     </row>
     <row spans="1:28" r="17">
       <c t="n" s="1" r="A17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c t="s" r="B17">
         <v>34</v>
@@ -1959,7 +1959,7 @@
         <v>44</v>
       </c>
       <c t="s" r="E17">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c t="s" r="F17">
         <v>43</v>
@@ -1968,72 +1968,72 @@
         <v>30</v>
       </c>
       <c t="n" r="H17">
-        <v>82696</v>
+        <v>66452</v>
       </c>
       <c t="n" r="I17">
-        <v>687080</v>
+        <v>142230</v>
       </c>
       <c t="n" r="J17">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c t="n" r="K17">
-        <v>7778</v>
+        <v>8072</v>
       </c>
       <c t="n" r="L17">
-        <v>1843</v>
+        <v>6926</v>
       </c>
       <c t="n" r="M17">
-        <v>9224</v>
+        <v>2814</v>
       </c>
       <c t="n" r="N17">
-        <v>7236</v>
+        <v>1054</v>
       </c>
       <c t="n" r="O17">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c t="n" r="P17">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c t="n" r="Q17">
         <v>0.81</v>
       </c>
       <c t="n" r="R17">
-        <v>789</v>
+        <v>161</v>
       </c>
       <c t="n" r="S17">
-        <v>6483</v>
+        <v>5764</v>
       </c>
       <c t="n" r="T17">
-        <v>2290</v>
+        <v>6296</v>
       </c>
       <c t="n" r="U17">
-        <v>677</v>
+        <v>533</v>
       </c>
       <c t="n" r="V17">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c t="n" r="W17">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c t="n" r="X17">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c t="n" r="Y17">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c t="n" r="Z17">
-        <v>5168</v>
+        <v>1048</v>
       </c>
       <c t="n" r="AA17">
-        <v>6140</v>
+        <v>1383</v>
       </c>
       <c t="n" r="AB17">
-        <v>7440</v>
+        <v>1546</v>
       </c>
     </row>
     <row spans="1:28" r="18">
       <c t="n" s="1" r="A18">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c t="s" r="B18">
         <v>34</v>
@@ -2045,7 +2045,7 @@
         <v>44</v>
       </c>
       <c t="s" r="E18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c t="s" r="F18">
         <v>43</v>
@@ -2054,72 +2054,72 @@
         <v>30</v>
       </c>
       <c t="n" r="H18">
-        <v>25336</v>
+        <v>20260</v>
       </c>
       <c t="n" r="I18">
-        <v>720546</v>
+        <v>893100</v>
       </c>
       <c t="n" r="J18">
-        <v>0.56</v>
+        <v>0.64</v>
       </c>
       <c t="n" r="K18">
-        <v>3781</v>
+        <v>7163</v>
       </c>
       <c t="n" r="L18">
-        <v>4149</v>
+        <v>1616</v>
       </c>
       <c t="n" r="M18">
-        <v>2284</v>
+        <v>3834</v>
       </c>
       <c t="n" r="N18">
-        <v>5888</v>
+        <v>4207</v>
       </c>
       <c t="n" r="O18">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c t="n" r="P18">
+        <v>74</v>
+      </c>
+      <c t="n" r="Q18">
+        <v>0.17</v>
+      </c>
+      <c t="n" r="R18">
+        <v>621</v>
+      </c>
+      <c t="n" r="S18">
+        <v>5758</v>
+      </c>
+      <c t="n" r="T18">
+        <v>3882</v>
+      </c>
+      <c t="n" r="U18">
+        <v>849</v>
+      </c>
+      <c t="n" r="V18">
+        <v>26</v>
+      </c>
+      <c t="n" r="W18">
         <v>49</v>
       </c>
-      <c t="n" r="Q18">
-        <v>0.8</v>
-      </c>
-      <c t="n" r="R18">
-        <v>884</v>
-      </c>
-      <c t="n" r="S18">
-        <v>3512</v>
-      </c>
-      <c t="n" r="T18">
-        <v>3767</v>
-      </c>
-      <c t="n" r="U18">
-        <v>831</v>
-      </c>
-      <c t="n" r="V18">
-        <v>20</v>
-      </c>
-      <c t="n" r="W18">
-        <v>21</v>
-      </c>
       <c t="n" r="X18">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c t="n" r="Y18">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c t="n" r="Z18">
-        <v>7276</v>
+        <v>7672</v>
       </c>
       <c t="n" r="AA18">
-        <v>3770</v>
+        <v>9166</v>
       </c>
       <c t="n" r="AB18">
-        <v>3599</v>
+        <v>9306</v>
       </c>
     </row>
     <row spans="1:28" r="19">
       <c t="n" s="1" r="A19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c t="s" r="B19">
         <v>34</v>
@@ -2131,7 +2131,7 @@
         <v>44</v>
       </c>
       <c t="s" r="E19">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c t="s" r="F19">
         <v>43</v>
@@ -2140,72 +2140,72 @@
         <v>30</v>
       </c>
       <c t="n" r="H19">
-        <v>20921</v>
+        <v>20354</v>
       </c>
       <c t="n" r="I19">
-        <v>171257</v>
+        <v>959226</v>
       </c>
       <c t="n" r="J19">
-        <v>0.29</v>
+        <v>0.53</v>
       </c>
       <c t="n" r="K19">
-        <v>4862</v>
+        <v>6307</v>
       </c>
       <c t="n" r="L19">
-        <v>5239</v>
+        <v>2485</v>
       </c>
       <c t="n" r="M19">
-        <v>7122</v>
+        <v>7271</v>
       </c>
       <c t="n" r="N19">
-        <v>1010</v>
+        <v>8086</v>
       </c>
       <c t="n" r="O19">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c t="n" r="P19">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c t="n" r="Q19">
-        <v>0.47</v>
+        <v>0.74</v>
       </c>
       <c t="n" r="R19">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c t="n" r="S19">
-        <v>3934</v>
+        <v>1210</v>
       </c>
       <c t="n" r="T19">
-        <v>2870</v>
+        <v>8773</v>
       </c>
       <c t="n" r="U19">
-        <v>866</v>
+        <v>612</v>
       </c>
       <c t="n" r="V19">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c t="n" r="W19">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c t="n" r="X19">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c t="n" r="Y19">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c t="n" r="Z19">
-        <v>4825</v>
+        <v>7529</v>
       </c>
       <c t="n" r="AA19">
-        <v>5187</v>
+        <v>5732</v>
       </c>
       <c t="n" r="AB19">
-        <v>6723</v>
+        <v>1311</v>
       </c>
     </row>
     <row spans="1:28" r="20">
       <c t="n" s="1" r="A20">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c t="s" r="B20">
         <v>34</v>
@@ -2217,7 +2217,7 @@
         <v>44</v>
       </c>
       <c t="s" r="E20">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c t="s" r="F20">
         <v>43</v>
@@ -2226,72 +2226,72 @@
         <v>30</v>
       </c>
       <c t="n" r="H20">
-        <v>25698</v>
+        <v>87904</v>
       </c>
       <c t="n" r="I20">
-        <v>843377</v>
+        <v>620277</v>
       </c>
       <c t="n" r="J20">
-        <v>0.43</v>
+        <v>0.99</v>
       </c>
       <c t="n" r="K20">
-        <v>2183</v>
+        <v>9175</v>
       </c>
       <c t="n" r="L20">
-        <v>9994</v>
+        <v>7931</v>
       </c>
       <c t="n" r="M20">
-        <v>5537</v>
+        <v>6718</v>
       </c>
       <c t="n" r="N20">
-        <v>3188</v>
+        <v>5254</v>
       </c>
       <c t="n" r="O20">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c t="n" r="P20">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c t="n" r="Q20">
-        <v>0.26</v>
+        <v>0.46</v>
       </c>
       <c t="n" r="R20">
-        <v>578</v>
+        <v>875</v>
       </c>
       <c t="n" r="S20">
-        <v>4296</v>
+        <v>3026</v>
       </c>
       <c t="n" r="T20">
-        <v>5615</v>
+        <v>9647</v>
       </c>
       <c t="n" r="U20">
-        <v>972</v>
+        <v>341</v>
       </c>
       <c t="n" r="V20">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c t="n" r="W20">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c t="n" r="X20">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c t="n" r="Y20">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c t="n" r="Z20">
-        <v>8518</v>
+        <v>8187</v>
       </c>
       <c t="n" r="AA20">
-        <v>4396</v>
+        <v>3879</v>
       </c>
       <c t="n" r="AB20">
-        <v>3411</v>
+        <v>7596</v>
       </c>
     </row>
     <row spans="1:28" r="21">
       <c t="n" s="1" r="A21">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c t="s" r="B21">
         <v>34</v>
@@ -2303,7 +2303,7 @@
         <v>44</v>
       </c>
       <c t="s" r="E21">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c t="s" r="F21">
         <v>43</v>
@@ -2312,72 +2312,72 @@
         <v>30</v>
       </c>
       <c t="n" r="H21">
-        <v>42931</v>
+        <v>71445</v>
       </c>
       <c t="n" r="I21">
-        <v>972846</v>
+        <v>201357</v>
       </c>
       <c t="n" r="J21">
-        <v>0.79</v>
+        <v>0.92</v>
       </c>
       <c t="n" r="K21">
-        <v>9641</v>
+        <v>5910</v>
       </c>
       <c t="n" r="L21">
-        <v>6346</v>
+        <v>5321</v>
       </c>
       <c t="n" r="M21">
-        <v>1462</v>
+        <v>9267</v>
       </c>
       <c t="n" r="N21">
-        <v>5170</v>
+        <v>8984</v>
       </c>
       <c t="n" r="O21">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c t="n" r="P21">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c t="n" r="Q21">
-        <v>0.85</v>
+        <v>0.62</v>
       </c>
       <c t="n" r="R21">
-        <v>400</v>
+        <v>979</v>
       </c>
       <c t="n" r="S21">
-        <v>9459</v>
+        <v>5592</v>
       </c>
       <c t="n" r="T21">
-        <v>9512</v>
+        <v>5194</v>
       </c>
       <c t="n" r="U21">
-        <v>552</v>
+        <v>578</v>
       </c>
       <c t="n" r="V21">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c t="n" r="W21">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c t="n" r="X21">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c t="n" r="Y21">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c t="n" r="Z21">
-        <v>2253</v>
+        <v>8590</v>
       </c>
       <c t="n" r="AA21">
-        <v>6436</v>
+        <v>3574</v>
       </c>
       <c t="n" r="AB21">
-        <v>6726</v>
+        <v>8905</v>
       </c>
     </row>
     <row spans="1:28" r="22">
       <c t="n" s="1" r="A22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c t="s" r="B22">
         <v>34</v>
@@ -2389,7 +2389,7 @@
         <v>44</v>
       </c>
       <c t="s" r="E22">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c t="s" r="F22">
         <v>43</v>
@@ -2398,67 +2398,67 @@
         <v>30</v>
       </c>
       <c t="n" r="H22">
-        <v>86012</v>
+        <v>38675</v>
       </c>
       <c t="n" r="I22">
-        <v>893025</v>
+        <v>505288</v>
       </c>
       <c t="n" r="J22">
-        <v>0.0</v>
+        <v>0.55</v>
       </c>
       <c t="n" r="K22">
-        <v>7547</v>
+        <v>6405</v>
       </c>
       <c t="n" r="L22">
-        <v>8982</v>
+        <v>1366</v>
       </c>
       <c t="n" r="M22">
-        <v>7420</v>
+        <v>1774</v>
       </c>
       <c t="n" r="N22">
-        <v>3201</v>
+        <v>2686</v>
       </c>
       <c t="n" r="O22">
         <v>44</v>
       </c>
       <c t="n" r="P22">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c t="n" r="Q22">
-        <v>0.42</v>
+        <v>0.54</v>
       </c>
       <c t="n" r="R22">
-        <v>812</v>
+        <v>530</v>
       </c>
       <c t="n" r="S22">
-        <v>7751</v>
+        <v>9249</v>
       </c>
       <c t="n" r="T22">
-        <v>4264</v>
+        <v>6045</v>
       </c>
       <c t="n" r="U22">
-        <v>208</v>
+        <v>538</v>
       </c>
       <c t="n" r="V22">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c t="n" r="W22">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c t="n" r="X22">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c t="n" r="Y22">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c t="n" r="Z22">
-        <v>4216</v>
+        <v>1435</v>
       </c>
       <c t="n" r="AA22">
-        <v>9709</v>
+        <v>2046</v>
       </c>
       <c t="n" r="AB22">
-        <v>9423</v>
+        <v>3419</v>
       </c>
     </row>
   </sheetData>
